--- a/biology/Écologie/Michal_Kravčík/Michal_Kravčík.xlsx
+++ b/biology/Écologie/Michal_Kravčík/Michal_Kravčík.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Michal_Krav%C4%8D%C3%ADk</t>
+          <t>Michal_Kravčík</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michal Kravčík (né le 3 février 1956)[1] est un hydrologue et écologue slovaque. Il reçuoit le Prix Goldman pour l'environnement en 1999 pour sa contribution à la gestion de la rivière Torysa[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michal Kravčík (né le 3 février 1956) est un hydrologue et écologue slovaque. Il reçuoit le Prix Goldman pour l'environnement en 1999 pour sa contribution à la gestion de la rivière Torysa.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Michal_Krav%C4%8D%C3%ADk</t>
+          <t>Michal_Kravčík</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est titulaire d'un doctorat en Génie civil de l'Université technique slovaque. Il travaille durant 8 ans à l'Académie slovaque des sciences. À travers son action, il promeut des solutions écologiques pour la gestion intégrée des bassins fluviaux. Il publie et contribue à de nombreux ouvrages, dont « De l’eau pour le climat – un nouveau paradigme de l’eau » (anglais : Water for the Recovery of the Climate – A New Water Paradigm) en 2007[3]. Il est membre fondateur et président de l'organisation non gouvernementale People and Water (slovaque : MVO Ľudia a voda). Il est membre d'Ashoka[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est titulaire d'un doctorat en Génie civil de l'Université technique slovaque. Il travaille durant 8 ans à l'Académie slovaque des sciences. À travers son action, il promeut des solutions écologiques pour la gestion intégrée des bassins fluviaux. Il publie et contribue à de nombreux ouvrages, dont « De l’eau pour le climat – un nouveau paradigme de l’eau » (anglais : Water for the Recovery of the Climate – A New Water Paradigm) en 2007. Il est membre fondateur et président de l'organisation non gouvernementale People and Water (slovaque : MVO Ľudia a voda). Il est membre d'Ashoka.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Michal_Krav%C4%8D%C3%ADk</t>
+          <t>Michal_Kravčík</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,13 +556,15 @@
           <t>Engagements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1992, le gouvernement démocratique slovaque reprend une idée de l'époque communiste consistant à construire un barrage à Tichý Potok sur la rivière Torysa. Le projet est censé fournir de l'Eau potable aux villes de l'est de la Slovaquie et remédier aux éventuelles pénuries d'eau. L'investissement aurait eu des conséquences sur l'environnement et nécessitait l'abandon de quatre villages vieux de 700 ans. Michal Kravčík s'y oppose, affirmant que les réservoirs d'eau potable existants ne sont pas pleinement utilisés, que le taux de consommation d'eau avait diminué et que d'importantes quantités d'eau sont gaspillées au stade de la distribution. En 1993, il propose une solution au problème intitulée « L'eau pour le troisième millénaire ».
 En 1994, il propose « L’Alternative bleue ». L'une des exigences est la décentralisation du pouvoir, car il est prévu que l'eau soit distribuée par les autorités locales. Le plan de Michal Kravčík commence par la construction de 35 microbassins, déversoirs et barrages sur les cours d'eau locaux. Il entend également protéger les villages historiques et soutenir l'agriculture, mais le ministère slovaque de l'Environnement rejette son idée. Michal Kravčík, en collaboration avec l'ONG People and Water, organise des camps de travail d'été en 1995 et 1996 afin de construire de petits réservoirs d'eau. Une fois les constructions terminées, les médias sont invités sur le chantier. La médiatisation est renforcée du fait d'une amende à l'encontre de People et Water pour construction sans autorisation.
 Il est à l'initiative du programme « Villages pour le troisième millénaire » qui prévoit le développement de 24 villages. Ils mènent des activités telles qu'une ferme biologique, de l'agrotourisme, de l'artisanat, une ferme piscicole et station de traitement des eaux usées à base de roseaux.
 Il lance une campagne « Village et démocratie » qui comprend 164 villages de la région montagneuse de Levoča, dans laquelle il introduit des processus démocratiques en faveur d'une société durable et ouverte.
-En 1998, il entre sur la scène nationale en organisant une campagne éducative sur le thème des prochaines élections. Grâce à ses actions, les élections réunissent 84% de la population et l'ancien Premier ministre qui soutenait l'idée de construire le barrage de Tichy Potok est évincé[5].
+En 1998, il entre sur la scène nationale en organisant une campagne éducative sur le thème des prochaines élections. Grâce à ses actions, les élections réunissent 84% de la population et l'ancien Premier ministre qui soutenait l'idée de construire le barrage de Tichy Potok est évincé.
 </t>
         </is>
       </c>
